--- a/branches/iit-resource_fig-60/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/iit-resource_fig-60/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T12:58:17+00:00</t>
+    <t>2023-03-02T13:09:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/iit-resource_fig-60/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/iit-resource_fig-60/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T13:09:37+00:00</t>
+    <t>2023-03-02T13:11:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/iit-resource_fig-60/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/iit-resource_fig-60/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T13:11:41+00:00</t>
+    <t>2023-03-03T12:25:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>84</v>

--- a/branches/iit-resource_fig-60/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/iit-resource_fig-60/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:25:55+00:00</t>
+    <t>2023-03-03T12:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
